--- a/Tables/Сравнение оценок.xlsx
+++ b/Tables/Сравнение оценок.xlsx
@@ -677,6 +677,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFE0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,12 +690,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB6C1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,10 +1056,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1">
@@ -1070,10 +1070,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1">
@@ -1084,23 +1084,23 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1112,52 +1112,52 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1">
-      <c r="A9" s="4">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1">
@@ -1168,10 +1168,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1188,32 +1188,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1">
-      <c r="A13" s="4">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1">
@@ -1224,38 +1224,38 @@
         <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1">
-      <c r="A16" s="4">
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5</v>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1272,32 +1272,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4" s="3" customFormat="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1">
-      <c r="A19" s="4">
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>3</v>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1">
@@ -1308,51 +1308,51 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="3" customFormat="1">
-      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1">
-      <c r="A22" s="4">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1364,10 +1364,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1">
@@ -1378,10 +1378,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1">
@@ -1392,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1">
@@ -1406,23 +1406,23 @@
         <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1434,10 +1434,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1462,10 +1462,10 @@
         <v>33</v>
       </c>
       <c r="C31" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1">
@@ -1476,24 +1476,24 @@
         <v>34</v>
       </c>
       <c r="C32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="2" customFormat="1">
-      <c r="A33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2">
-        <v>3</v>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1">
@@ -1504,24 +1504,24 @@
         <v>36</v>
       </c>
       <c r="C34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1">
-      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="4">
-        <v>3</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5</v>
+      <c r="C35" s="3">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="2" customFormat="1">
@@ -1532,10 +1532,10 @@
         <v>38</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1">
@@ -1546,52 +1546,52 @@
         <v>39</v>
       </c>
       <c r="C37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="3" customFormat="1">
-      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1">
-      <c r="A40" s="4">
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4">
-        <v>4</v>
-      </c>
-      <c r="D40" s="4">
-        <v>5</v>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1">
@@ -1602,38 +1602,38 @@
         <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="3" customFormat="1">
-      <c r="A42" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="3">
-        <v>3</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="3" customFormat="1">
-      <c r="A43" s="3">
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="3">
-        <v>5</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1">
@@ -1644,79 +1644,79 @@
         <v>46</v>
       </c>
       <c r="C44" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="4" customFormat="1">
-      <c r="A45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="4">
-        <v>4</v>
-      </c>
-      <c r="D45" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
+      <c r="C45" s="3">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="3" customFormat="1">
-      <c r="A47" s="3">
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="2" customFormat="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="3">
-        <v>4</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1">
-      <c r="A48" s="4">
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="4">
-        <v>4</v>
-      </c>
-      <c r="D48" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1728,10 +1728,10 @@
         <v>52</v>
       </c>
       <c r="C50" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1748,172 +1748,172 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1">
-      <c r="A52" s="4">
+    <row r="52" spans="1:4" s="2" customFormat="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="4">
-        <v>3</v>
-      </c>
-      <c r="D52" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="4" customFormat="1">
-      <c r="A53" s="4">
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="2" customFormat="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="4">
-        <v>3</v>
-      </c>
-      <c r="D53" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="3" customFormat="1">
-      <c r="A54" s="3">
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="3">
-        <v>5</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="4" customFormat="1">
-      <c r="A55" s="4">
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="3" customFormat="1">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="4" customFormat="1">
-      <c r="A57" s="4">
+      <c r="C56" s="3">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="4">
-        <v>4</v>
-      </c>
-      <c r="D57" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="3" customFormat="1">
-      <c r="A58" s="3">
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="3">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="4" customFormat="1">
-      <c r="A59" s="4">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="4">
-        <v>3</v>
-      </c>
-      <c r="D59" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
+      <c r="C59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1">
-      <c r="A61" s="4">
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="4">
-        <v>3</v>
-      </c>
-      <c r="D61" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1">
-      <c r="A62" s="2">
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="2">
-        <v>4</v>
-      </c>
-      <c r="D62" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1">
-      <c r="A63" s="3">
+      <c r="C62" s="3">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="3">
-        <v>5</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2</v>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="4" customFormat="1">
@@ -1924,37 +1924,37 @@
         <v>65</v>
       </c>
       <c r="C64" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="2" customFormat="1">
-      <c r="A65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="2">
-        <v>5</v>
-      </c>
-      <c r="D65" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="4" customFormat="1">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="4">
+        <v>3</v>
+      </c>
+      <c r="D66" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1980,10 +1980,10 @@
         <v>69</v>
       </c>
       <c r="C68" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="4" customFormat="1">
@@ -1994,10 +1994,10 @@
         <v>70</v>
       </c>
       <c r="C69" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="4" customFormat="1">
@@ -2008,10 +2008,10 @@
         <v>71</v>
       </c>
       <c r="C70" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2028,32 +2028,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
+    <row r="72" spans="1:4" s="3" customFormat="1">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="3" customFormat="1">
-      <c r="A73" s="3">
+      <c r="C72" s="3">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="3">
-        <v>4</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2</v>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="4" customFormat="1">
@@ -2064,38 +2064,38 @@
         <v>75</v>
       </c>
       <c r="C74" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="4" customFormat="1">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="3" customFormat="1">
-      <c r="A76" s="3">
+      <c r="C75" s="4">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="2" customFormat="1">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="3">
-        <v>5</v>
-      </c>
-      <c r="D76" s="3">
-        <v>2</v>
+      <c r="C76" s="2">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="2" customFormat="1">
@@ -2106,24 +2106,24 @@
         <v>78</v>
       </c>
       <c r="C77" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="3" customFormat="1">
-      <c r="A78" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="3">
-        <v>4</v>
-      </c>
-      <c r="D78" s="3">
-        <v>2</v>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="2" customFormat="1">
@@ -2134,10 +2134,10 @@
         <v>80</v>
       </c>
       <c r="C79" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="2" customFormat="1">
@@ -2148,38 +2148,38 @@
         <v>81</v>
       </c>
       <c r="C80" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1">
-      <c r="A81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="2">
-        <v>4</v>
-      </c>
-      <c r="D81" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="4" customFormat="1">
-      <c r="A82" s="4">
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="2" customFormat="1">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="4">
-        <v>3</v>
-      </c>
-      <c r="D82" s="4">
-        <v>5</v>
+      <c r="C82" s="2">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="2" customFormat="1">
@@ -2190,38 +2190,38 @@
         <v>84</v>
       </c>
       <c r="C83" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="4" customFormat="1">
-      <c r="A84" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="4">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="3" customFormat="1">
-      <c r="A85" s="3">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="3">
-        <v>3</v>
-      </c>
-      <c r="D85" s="3">
-        <v>2</v>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2238,46 +2238,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
+    <row r="87" spans="1:4" s="4" customFormat="1">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="3" customFormat="1">
-      <c r="A88" s="3">
+      <c r="C87" s="4">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="3">
-        <v>5</v>
-      </c>
-      <c r="D88" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="4" customFormat="1">
-      <c r="A89" s="4">
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="2" customFormat="1">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="4">
-        <v>4</v>
-      </c>
-      <c r="D89" s="4">
-        <v>5</v>
+      <c r="C89" s="2">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="2" customFormat="1">
@@ -2288,10 +2288,10 @@
         <v>91</v>
       </c>
       <c r="C90" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="4" customFormat="1">
@@ -2302,10 +2302,10 @@
         <v>92</v>
       </c>
       <c r="C91" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="2" customFormat="1">
@@ -2316,66 +2316,66 @@
         <v>93</v>
       </c>
       <c r="C92" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="4" customFormat="1">
-      <c r="A93" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="4">
-        <v>4</v>
-      </c>
-      <c r="D93" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="4" customFormat="1">
-      <c r="A94" s="4">
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="2" customFormat="1">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="4">
-        <v>4</v>
-      </c>
-      <c r="D94" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="4" customFormat="1">
-      <c r="A95" s="4">
+      <c r="C94" s="2">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="4">
-        <v>3</v>
-      </c>
-      <c r="D95" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="2" customFormat="1">
-      <c r="A96" s="2">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="2">
-        <v>5</v>
-      </c>
-      <c r="D96" s="2">
-        <v>4</v>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="2" customFormat="1">
@@ -2386,10 +2386,10 @@
         <v>98</v>
       </c>
       <c r="C97" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="2" customFormat="1">
@@ -2400,10 +2400,10 @@
         <v>99</v>
       </c>
       <c r="C98" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="4" customFormat="1">
@@ -2414,24 +2414,24 @@
         <v>100</v>
       </c>
       <c r="C99" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" s="4" customFormat="1">
-      <c r="A100" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="4">
-        <v>2</v>
-      </c>
-      <c r="D100" s="4">
-        <v>3</v>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="4" customFormat="1">
@@ -2442,37 +2442,37 @@
         <v>102</v>
       </c>
       <c r="C101" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="3" customFormat="1">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
+      <c r="C102" s="3">
+        <v>5</v>
+      </c>
+      <c r="D102" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="3" customFormat="1">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C103">
-        <v>4</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+      <c r="D103" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2484,65 +2484,65 @@
         <v>105</v>
       </c>
       <c r="C104" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="3" customFormat="1">
-      <c r="A105" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="2" customFormat="1">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="3">
-        <v>5</v>
-      </c>
-      <c r="D105" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="4" customFormat="1">
-      <c r="A106" s="4">
+      <c r="C105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="2" customFormat="1">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="4">
-        <v>4</v>
-      </c>
-      <c r="D106" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="4" customFormat="1">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
+      <c r="C107" s="4">
+        <v>5</v>
+      </c>
+      <c r="D107" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-      <c r="D108">
+      <c r="C108" s="3">
+        <v>5</v>
+      </c>
+      <c r="D108" s="3">
         <v>4</v>
       </c>
     </row>
@@ -2554,23 +2554,23 @@
         <v>110</v>
       </c>
       <c r="C109" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="3" customFormat="1">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C110">
-        <v>3</v>
-      </c>
-      <c r="D110">
+      <c r="C110" s="3">
+        <v>4</v>
+      </c>
+      <c r="D110" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2588,18 +2588,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="4" customFormat="1">
-      <c r="A112" s="4">
+    <row r="112" spans="1:4">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="4">
-        <v>3</v>
-      </c>
-      <c r="D112" s="4">
-        <v>4</v>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="4" customFormat="1">
@@ -2610,66 +2610,66 @@
         <v>114</v>
       </c>
       <c r="C113" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D113" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="3" customFormat="1">
-      <c r="A114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="2" customFormat="1">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="3">
-        <v>4</v>
-      </c>
-      <c r="D114" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="4" customFormat="1">
-      <c r="A115" s="4">
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="3" customFormat="1">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="4">
-        <v>3</v>
-      </c>
-      <c r="D115" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116">
+      <c r="C115" s="3">
+        <v>5</v>
+      </c>
+      <c r="D115" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="3" customFormat="1">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="3" customFormat="1">
-      <c r="A117" s="3">
+      <c r="C116" s="3">
+        <v>5</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="3">
-        <v>3</v>
-      </c>
-      <c r="D117" s="3">
-        <v>2</v>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="2" customFormat="1">
@@ -2680,38 +2680,38 @@
         <v>119</v>
       </c>
       <c r="C118" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D118" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" s="3" customFormat="1">
-      <c r="A119" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="C119" s="3">
-        <v>3</v>
-      </c>
-      <c r="D119" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="4" customFormat="1">
-      <c r="A120" s="4">
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="3" customFormat="1">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="4">
-        <v>3</v>
-      </c>
-      <c r="D120" s="4">
-        <v>5</v>
+      <c r="C120" s="3">
+        <v>4</v>
+      </c>
+      <c r="D120" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="4" customFormat="1">
@@ -2722,24 +2722,24 @@
         <v>122</v>
       </c>
       <c r="C121" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D121" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="4" customFormat="1">
-      <c r="A122" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="3" customFormat="1">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="4">
-        <v>3</v>
-      </c>
-      <c r="D122" s="4">
-        <v>5</v>
+      <c r="C122" s="3">
+        <v>5</v>
+      </c>
+      <c r="D122" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="4" customFormat="1">
@@ -2750,24 +2750,24 @@
         <v>124</v>
       </c>
       <c r="C123" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D123" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="4" customFormat="1">
-      <c r="A124" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="2" customFormat="1">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="4">
-        <v>4</v>
-      </c>
-      <c r="D124" s="4">
-        <v>5</v>
+      <c r="C124" s="2">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="2" customFormat="1">
@@ -2778,51 +2778,51 @@
         <v>126</v>
       </c>
       <c r="C125" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="3" customFormat="1">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C126">
-        <v>3</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127">
+      <c r="C126" s="3">
+        <v>5</v>
+      </c>
+      <c r="D126" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="2" customFormat="1">
+      <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C127">
-        <v>3</v>
-      </c>
-      <c r="D127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128">
+      <c r="C127" s="2">
+        <v>2</v>
+      </c>
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="3" customFormat="1">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
+      <c r="C128" s="3">
+        <v>5</v>
+      </c>
+      <c r="D128" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2834,10 +2834,10 @@
         <v>130</v>
       </c>
       <c r="C129" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="4" customFormat="1">
@@ -2848,10 +2848,10 @@
         <v>131</v>
       </c>
       <c r="C130" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D130" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="3" customFormat="1">
@@ -2862,52 +2862,52 @@
         <v>132</v>
       </c>
       <c r="C131" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D131" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" s="3" customFormat="1">
-      <c r="A132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="3">
-        <v>3</v>
-      </c>
-      <c r="D132" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133">
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="2" customFormat="1">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C133">
-        <v>5</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="3" customFormat="1">
-      <c r="A134" s="3">
+      <c r="C133" s="2">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="2" customFormat="1">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C134" s="3">
-        <v>5</v>
-      </c>
-      <c r="D134" s="3">
-        <v>2</v>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2932,38 +2932,38 @@
         <v>136</v>
       </c>
       <c r="C136" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D136" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="4" customFormat="1">
-      <c r="A137" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="2" customFormat="1">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="4">
-        <v>4</v>
-      </c>
-      <c r="D137" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="4" customFormat="1">
-      <c r="A138" s="4">
+      <c r="C137" s="2">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="2" customFormat="1">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C138" s="4">
-        <v>4</v>
-      </c>
-      <c r="D138" s="4">
-        <v>5</v>
+      <c r="C138" s="2">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="2" customFormat="1">
@@ -2974,52 +2974,52 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="3" customFormat="1">
-      <c r="A140" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="2" customFormat="1">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="3">
-        <v>5</v>
-      </c>
-      <c r="D140" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="4" customFormat="1">
-      <c r="A141" s="4">
+      <c r="C140" s="2">
+        <v>2</v>
+      </c>
+      <c r="D140" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="2" customFormat="1">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="4">
-        <v>4</v>
-      </c>
-      <c r="D141" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="4" customFormat="1">
-      <c r="A142" s="4">
+      <c r="C141" s="2">
+        <v>2</v>
+      </c>
+      <c r="D141" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="2" customFormat="1">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="4">
-        <v>3</v>
-      </c>
-      <c r="D142" s="4">
-        <v>4</v>
+      <c r="C142" s="2">
+        <v>2</v>
+      </c>
+      <c r="D142" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="2" customFormat="1">
@@ -3030,10 +3030,10 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="4" customFormat="1">
@@ -3044,10 +3044,10 @@
         <v>144</v>
       </c>
       <c r="C144" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="2" customFormat="1">
@@ -3058,10 +3058,10 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D145" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3086,52 +3086,52 @@
         <v>147</v>
       </c>
       <c r="C147" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="3" customFormat="1">
-      <c r="A148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="2" customFormat="1">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="3">
-        <v>5</v>
-      </c>
-      <c r="D148" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149">
+      <c r="C148" s="2">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="2" customFormat="1">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C149">
-        <v>4</v>
-      </c>
-      <c r="D149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="3" customFormat="1">
-      <c r="A150" s="3">
+      <c r="C149" s="2">
+        <v>2</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="3">
-        <v>3</v>
-      </c>
-      <c r="D150" s="3">
-        <v>2</v>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3148,18 +3148,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="3" customFormat="1">
-      <c r="A152" s="3">
+    <row r="152" spans="1:4" s="2" customFormat="1">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C152" s="3">
-        <v>3</v>
-      </c>
-      <c r="D152" s="3">
-        <v>2</v>
+      <c r="C152" s="2">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3176,31 +3176,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154">
+    <row r="154" spans="1:4" s="2" customFormat="1">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C154">
-        <v>4</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155">
+      <c r="C154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" s="2" customFormat="1">
+      <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C155">
-        <v>3</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3212,52 +3212,52 @@
         <v>156</v>
       </c>
       <c r="C156" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D156" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="4" customFormat="1">
-      <c r="A157" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="3" customFormat="1">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="4">
-        <v>3</v>
-      </c>
-      <c r="D157" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="4" customFormat="1">
-      <c r="A158" s="4">
+      <c r="C157" s="3">
+        <v>4</v>
+      </c>
+      <c r="D157" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" s="2" customFormat="1">
+      <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="4">
-        <v>3</v>
-      </c>
-      <c r="D158" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="4" customFormat="1">
-      <c r="A159" s="4">
+      <c r="C158" s="2">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="2" customFormat="1">
+      <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="4">
-        <v>4</v>
-      </c>
-      <c r="D159" s="4">
-        <v>5</v>
+      <c r="C159" s="2">
+        <v>3</v>
+      </c>
+      <c r="D159" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="2" customFormat="1">
@@ -3268,38 +3268,38 @@
         <v>159</v>
       </c>
       <c r="C160" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D160" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="3" customFormat="1">
-      <c r="A161" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="3">
-        <v>4</v>
-      </c>
-      <c r="D161" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" s="2" customFormat="1">
-      <c r="A162" s="2">
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="2">
-        <v>5</v>
-      </c>
-      <c r="D162" s="2">
-        <v>3</v>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="4" customFormat="1">
@@ -3310,10 +3310,10 @@
         <v>162</v>
       </c>
       <c r="C163" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D163" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3330,32 +3330,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="4" customFormat="1">
-      <c r="A165" s="4">
+    <row r="165" spans="1:4" s="2" customFormat="1">
+      <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="4">
-        <v>3</v>
-      </c>
-      <c r="D165" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="2" customFormat="1">
-      <c r="A166" s="2">
+      <c r="C165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="2">
-        <v>5</v>
-      </c>
-      <c r="D166" s="2">
-        <v>4</v>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1">
@@ -3366,10 +3366,10 @@
         <v>166</v>
       </c>
       <c r="C167" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D167" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="3" customFormat="1">
@@ -3380,24 +3380,24 @@
         <v>167</v>
       </c>
       <c r="C168" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D168" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="2" customFormat="1">
-      <c r="A169" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="2">
-        <v>4</v>
-      </c>
-      <c r="D169" s="2">
-        <v>3</v>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="2" customFormat="1">
@@ -3408,24 +3408,24 @@
         <v>169</v>
       </c>
       <c r="C170" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D170" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="3" customFormat="1">
-      <c r="A171" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="3">
-        <v>5</v>
-      </c>
-      <c r="D171" s="3">
-        <v>2</v>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="2" customFormat="1">
@@ -3436,38 +3436,38 @@
         <v>171</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D172" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="3" customFormat="1">
-      <c r="A173" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="2" customFormat="1">
+      <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="3">
-        <v>4</v>
-      </c>
-      <c r="D173" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="4" customFormat="1">
-      <c r="A174" s="4">
+      <c r="C173" s="2">
+        <v>2</v>
+      </c>
+      <c r="D173" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="2" customFormat="1">
+      <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="4">
-        <v>3</v>
-      </c>
-      <c r="D174" s="4">
-        <v>5</v>
+      <c r="C174" s="2">
+        <v>2</v>
+      </c>
+      <c r="D174" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3484,144 +3484,144 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176">
+    <row r="176" spans="1:4" s="3" customFormat="1">
+      <c r="A176" s="3">
         <v>176</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C176">
-        <v>3</v>
-      </c>
-      <c r="D176">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177">
+      <c r="C176" s="3">
+        <v>4</v>
+      </c>
+      <c r="D176" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="3" customFormat="1">
+      <c r="A177" s="3">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C177">
-        <v>4</v>
-      </c>
-      <c r="D177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" s="4" customFormat="1">
-      <c r="A178" s="4">
+      <c r="C177" s="3">
+        <v>5</v>
+      </c>
+      <c r="D177" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="4">
-        <v>2</v>
-      </c>
-      <c r="D178" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179">
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="3" customFormat="1">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C179">
-        <v>4</v>
-      </c>
-      <c r="D179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="2" customFormat="1">
-      <c r="A180" s="2">
+      <c r="C179" s="3">
+        <v>5</v>
+      </c>
+      <c r="D179" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="3" customFormat="1">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="2">
-        <v>4</v>
-      </c>
-      <c r="D180" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" s="2" customFormat="1">
-      <c r="A181" s="2">
+      <c r="C180" s="3">
+        <v>5</v>
+      </c>
+      <c r="D180" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="2">
-        <v>5</v>
-      </c>
-      <c r="D181" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" s="4" customFormat="1">
-      <c r="A182" s="4">
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="4">
-        <v>3</v>
-      </c>
-      <c r="D182" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" s="3" customFormat="1">
-      <c r="A183" s="3">
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" t="s">
         <v>181</v>
       </c>
-      <c r="C183" s="3">
-        <v>3</v>
-      </c>
-      <c r="D183" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="3" customFormat="1">
-      <c r="A184" s="3">
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="3">
-        <v>5</v>
-      </c>
-      <c r="D184" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="4" customFormat="1">
-      <c r="A185" s="4">
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="4">
-        <v>2</v>
-      </c>
-      <c r="D185" s="4">
-        <v>5</v>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="2" customFormat="1">
@@ -3632,79 +3632,79 @@
         <v>184</v>
       </c>
       <c r="C186" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D186" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="2" customFormat="1">
+      <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C187">
-        <v>3</v>
-      </c>
-      <c r="D187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188">
+      <c r="C187" s="2">
+        <v>2</v>
+      </c>
+      <c r="D187" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="4" customFormat="1">
+      <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C188">
-        <v>2</v>
-      </c>
-      <c r="D188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189">
+      <c r="C188" s="4">
+        <v>4</v>
+      </c>
+      <c r="D188" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="2" customFormat="1">
+      <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C189">
-        <v>5</v>
-      </c>
-      <c r="D189">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190">
+      <c r="C189" s="2">
+        <v>3</v>
+      </c>
+      <c r="D189" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="2" customFormat="1">
+      <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C190">
-        <v>4</v>
-      </c>
-      <c r="D190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191">
+      <c r="C190" s="2">
+        <v>3</v>
+      </c>
+      <c r="D190" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="2" customFormat="1">
+      <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C191">
-        <v>4</v>
-      </c>
-      <c r="D191">
+      <c r="C191" s="2">
+        <v>3</v>
+      </c>
+      <c r="D191" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3716,24 +3716,24 @@
         <v>190</v>
       </c>
       <c r="C192" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D192" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="4" customFormat="1">
-      <c r="A193" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="2" customFormat="1">
+      <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="4">
-        <v>3</v>
-      </c>
-      <c r="D193" s="4">
-        <v>5</v>
+      <c r="C193" s="2">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="3" customFormat="1">
@@ -3744,24 +3744,24 @@
         <v>192</v>
       </c>
       <c r="C194" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="4" customFormat="1">
-      <c r="A195" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="4">
-        <v>4</v>
-      </c>
-      <c r="D195" s="4">
-        <v>5</v>
+      <c r="C195">
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="4" customFormat="1">
@@ -3772,10 +3772,10 @@
         <v>193</v>
       </c>
       <c r="C196" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D196" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="4" customFormat="1">
@@ -3786,10 +3786,10 @@
         <v>194</v>
       </c>
       <c r="C197" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D197" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="3" customFormat="1">
@@ -3800,10 +3800,10 @@
         <v>195</v>
       </c>
       <c r="C198" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D198" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="4" customFormat="1">
@@ -3814,24 +3814,24 @@
         <v>196</v>
       </c>
       <c r="C199" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D199" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="2" customFormat="1">
-      <c r="A200" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="3" customFormat="1">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C200" s="2">
-        <v>4</v>
-      </c>
-      <c r="D200" s="2">
-        <v>3</v>
+      <c r="C200" s="3">
+        <v>5</v>
+      </c>
+      <c r="D200" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1">
@@ -3842,10 +3842,10 @@
         <v>198</v>
       </c>
       <c r="C201" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D201" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B4" t="s">
@@ -3883,7 +3883,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B5" t="s">
@@ -3891,7 +3891,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B6" t="s">

--- a/Tables/Сравнение оценок.xlsx
+++ b/Tables/Сравнение оценок.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Оценки учеников" sheetId="1" r:id="rId1"/>
-    <sheet name="Легенда" sheetId="2" r:id="rId2"/>
+    <sheet name="Аналитика" sheetId="2" r:id="rId2"/>
+    <sheet name="Легенда" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Оценки учеников'!$A$1:$D$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Оценки учеников'!$A$1:$D$203</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -155,6 +156,9 @@
     <t>Гущин</t>
   </si>
   <si>
+    <t>ДА</t>
+  </si>
+  <si>
     <t>Давыдов</t>
   </si>
   <si>
@@ -617,6 +621,105 @@
     <t>Яковлев</t>
   </si>
   <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>АНАЛИТИКА СРАВНЕНИЯ ОЦЕНОК</t>
+  </si>
+  <si>
+    <t>ОБЩАЯ СТАТИСТИКА</t>
+  </si>
+  <si>
+    <t>Всего учеников:</t>
+  </si>
+  <si>
+    <t>Учеников с двумя оценками:</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>Учеников только в первом файле:</t>
+  </si>
+  <si>
+    <t>Учеников только во втором файле:</t>
+  </si>
+  <si>
+    <t>ДИНАМИКА ОЦЕНОК</t>
+  </si>
+  <si>
+    <t>Улучшили оценку:</t>
+  </si>
+  <si>
+    <t>Ухудшили оценку:</t>
+  </si>
+  <si>
+    <t>Оценка не изменилась:</t>
+  </si>
+  <si>
+    <t>Появилась оценка 2:</t>
+  </si>
+  <si>
+    <t>СРЕДНИЕ БАЛЛЫ</t>
+  </si>
+  <si>
+    <t>Средний балл (первая оценка):</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>Средний балл (вторая оценка):</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>Изменение среднего балла:</t>
+  </si>
+  <si>
+    <t>+1.41</t>
+  </si>
+  <si>
+    <t>Количество оценок (первый файл):</t>
+  </si>
+  <si>
+    <t>Количество оценок (второй файл):</t>
+  </si>
+  <si>
+    <t>РАСПРЕДЕЛЕНИЕ ОЦЕНОК</t>
+  </si>
+  <si>
+    <t>Оценка 2:</t>
+  </si>
+  <si>
+    <t>Первая: 43</t>
+  </si>
+  <si>
+    <t>Вторая: 0</t>
+  </si>
+  <si>
+    <t>Оценка 3:</t>
+  </si>
+  <si>
+    <t>Первая: 49</t>
+  </si>
+  <si>
+    <t>Оценка 4:</t>
+  </si>
+  <si>
+    <t>Первая: 57</t>
+  </si>
+  <si>
+    <t>Оценка 5:</t>
+  </si>
+  <si>
+    <t>Первая: 52</t>
+  </si>
+  <si>
+    <t>Вторая: 1</t>
+  </si>
+  <si>
     <t>Цвет</t>
   </si>
   <si>
@@ -639,6 +742,12 @@
   </si>
   <si>
     <t>Оценка стала 2 (была не 2)</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Ученик есть только в одном файле</t>
   </si>
   <si>
     <t>Белый</t>
@@ -651,7 +760,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,13 +779,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF366092"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -684,6 +837,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,14 +880,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,51 +1227,39 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1112,9 +1271,6 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1126,9 +1282,6 @@
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1140,93 +1293,72 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1">
-      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1">
-      <c r="A10" s="3">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1">
-      <c r="A13" s="3">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1">
-      <c r="A14" s="4">
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1238,69 +1370,54 @@
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1">
-      <c r="A18" s="3">
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1308,13 +1425,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1322,83 +1436,65 @@
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="3" customFormat="1">
-      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1">
-      <c r="A23" s="4">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1">
-      <c r="A24" s="4">
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="3" customFormat="1">
-      <c r="A25" s="3">
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="3" customFormat="1">
-      <c r="A26" s="3">
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1">
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1406,13 +1502,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1420,13 +1513,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1434,41 +1524,32 @@
         <v>31</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="4" customFormat="1">
-      <c r="A31" s="4">
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1">
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1476,27 +1557,21 @@
         <v>34</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="2" customFormat="1">
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1504,27 +1579,21 @@
         <v>36</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="3" customFormat="1">
-      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1">
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="2" customFormat="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1532,41 +1601,32 @@
         <v>38</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="4" customFormat="1">
-      <c r="A37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="4">
-        <v>3</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="2" customFormat="1">
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1574,27 +1634,21 @@
         <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="2" customFormat="1">
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1602,27 +1656,21 @@
         <v>43</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="2" customFormat="1">
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1630,41 +1678,32 @@
         <v>45</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1">
-      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="3" customFormat="1">
-      <c r="A45" s="3">
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="3">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="2" customFormat="1">
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="2" customFormat="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1672,13 +1711,10 @@
         <v>48</v>
       </c>
       <c r="C46" s="2">
-        <v>3</v>
-      </c>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1686,13 +1722,10 @@
         <v>49</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1700,13 +1733,10 @@
         <v>50</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1716,11 +1746,8 @@
       <c r="C49" s="2">
         <v>4</v>
       </c>
-      <c r="D49" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="2" customFormat="1">
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1728,27 +1755,21 @@
         <v>52</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
-      </c>
-      <c r="D50" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="2" customFormat="1">
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1756,13 +1777,10 @@
         <v>54</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1770,13 +1788,10 @@
         <v>55</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="2" customFormat="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1786,11 +1801,8 @@
       <c r="C54" s="2">
         <v>3</v>
       </c>
-      <c r="D54" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="2" customFormat="1">
+    </row>
+    <row r="55" spans="1:3" s="2" customFormat="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1798,69 +1810,54 @@
         <v>57</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="3" customFormat="1">
-      <c r="A56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="2" customFormat="1">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="3">
-        <v>4</v>
-      </c>
-      <c r="D56" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
+      <c r="C56" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="2" customFormat="1">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="3" customFormat="1">
-      <c r="A59" s="3">
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="2" customFormat="1">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="3">
-        <v>4</v>
-      </c>
-      <c r="D59" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="2" customFormat="1">
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="2" customFormat="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1868,111 +1865,87 @@
         <v>62</v>
       </c>
       <c r="C60" s="2">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="3" customFormat="1">
-      <c r="A61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="2" customFormat="1">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="3">
-        <v>4</v>
-      </c>
-      <c r="D61" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="3" customFormat="1">
-      <c r="A62" s="3">
+      <c r="C61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="2" customFormat="1">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="3">
-        <v>5</v>
-      </c>
-      <c r="D62" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="2" customFormat="1">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="2" customFormat="1">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="2" customFormat="1">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="4" customFormat="1">
-      <c r="A64" s="4">
-        <v>62</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="4">
-        <v>4</v>
-      </c>
-      <c r="D64" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="B66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="2" customFormat="1">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="4" customFormat="1">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="4">
-        <v>3</v>
-      </c>
-      <c r="D66" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1">
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="2" customFormat="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1982,109 +1955,85 @@
       <c r="C68" s="2">
         <v>3</v>
       </c>
-      <c r="D68" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="4" customFormat="1">
-      <c r="A69" s="4">
+    </row>
+    <row r="69" spans="1:3" s="2" customFormat="1">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="4">
-        <v>5</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="4" customFormat="1">
-      <c r="A70" s="4">
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="2" customFormat="1">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="4">
-        <v>3</v>
-      </c>
-      <c r="D70" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="2" customFormat="1">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C71">
-        <v>5</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="3" customFormat="1">
-      <c r="A72" s="3">
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="2" customFormat="1">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="3">
-        <v>5</v>
-      </c>
-      <c r="D72" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="2" customFormat="1">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="4" customFormat="1">
-      <c r="A74" s="4">
+      <c r="C73" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="2" customFormat="1">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="4">
-        <v>3</v>
-      </c>
-      <c r="D74" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="4" customFormat="1">
-      <c r="A75" s="4">
+      <c r="C74" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="2" customFormat="1">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="4">
-        <v>3</v>
-      </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="2" customFormat="1">
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="2" customFormat="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2092,13 +2041,10 @@
         <v>77</v>
       </c>
       <c r="C76" s="2">
-        <v>4</v>
-      </c>
-      <c r="D76" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="2" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="2" customFormat="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2106,27 +2052,21 @@
         <v>78</v>
       </c>
       <c r="C77" s="2">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="2" customFormat="1">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="2" customFormat="1">
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="2" customFormat="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2134,13 +2074,10 @@
         <v>80</v>
       </c>
       <c r="C79" s="2">
-        <v>3</v>
-      </c>
-      <c r="D79" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="2" customFormat="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2148,27 +2085,21 @@
         <v>81</v>
       </c>
       <c r="C80" s="2">
-        <v>3</v>
-      </c>
-      <c r="D80" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="2" customFormat="1">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1">
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="2" customFormat="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2176,13 +2107,10 @@
         <v>83</v>
       </c>
       <c r="C82" s="2">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="2" customFormat="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2192,81 +2120,63 @@
       <c r="C83" s="2">
         <v>3</v>
       </c>
-      <c r="D83" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
+    </row>
+    <row r="84" spans="1:3" s="2" customFormat="1">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="2" customFormat="1">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
+      <c r="C85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="2" customFormat="1">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C86">
-        <v>5</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="4" customFormat="1">
-      <c r="A87" s="4">
+      <c r="C86" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="2" customFormat="1">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="4">
-        <v>4</v>
-      </c>
-      <c r="D87" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
+      <c r="C87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="2" customFormat="1">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="2" customFormat="1">
+      <c r="C88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="2" customFormat="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2274,13 +2184,10 @@
         <v>90</v>
       </c>
       <c r="C89" s="2">
-        <v>2</v>
-      </c>
-      <c r="D89" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="2" customFormat="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2288,27 +2195,21 @@
         <v>91</v>
       </c>
       <c r="C90" s="2">
-        <v>3</v>
-      </c>
-      <c r="D90" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="4" customFormat="1">
-      <c r="A91" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="2" customFormat="1">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="4">
-        <v>5</v>
-      </c>
-      <c r="D91" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="2" customFormat="1">
+      <c r="C91" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="2" customFormat="1">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2316,27 +2217,21 @@
         <v>93</v>
       </c>
       <c r="C92" s="2">
-        <v>3</v>
-      </c>
-      <c r="D92" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="2" customFormat="1">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="2" customFormat="1">
+      <c r="C93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="2" customFormat="1">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2344,41 +2239,32 @@
         <v>95</v>
       </c>
       <c r="C94" s="2">
-        <v>3</v>
-      </c>
-      <c r="D94" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="2" customFormat="1">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
+      <c r="C95" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="2" customFormat="1">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="2" customFormat="1">
+      <c r="C96" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="2" customFormat="1">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -2386,13 +2272,10 @@
         <v>98</v>
       </c>
       <c r="C97" s="2">
-        <v>2</v>
-      </c>
-      <c r="D97" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="2" customFormat="1">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -2400,83 +2283,65 @@
         <v>99</v>
       </c>
       <c r="C98" s="2">
-        <v>2</v>
-      </c>
-      <c r="D98" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="4" customFormat="1">
-      <c r="A99" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="2" customFormat="1">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="4">
-        <v>4</v>
-      </c>
-      <c r="D99" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
+      <c r="C99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="2" customFormat="1">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="4" customFormat="1">
-      <c r="A101" s="4">
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="2" customFormat="1">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="4">
-        <v>3</v>
-      </c>
-      <c r="D101" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="3" customFormat="1">
-      <c r="A102" s="3">
+      <c r="C101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="2" customFormat="1">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="3">
-        <v>5</v>
-      </c>
-      <c r="D102" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="3" customFormat="1">
-      <c r="A103" s="3">
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="2" customFormat="1">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="3">
-        <v>5</v>
-      </c>
-      <c r="D103" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="2" customFormat="1">
+      <c r="C103" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="2" customFormat="1">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -2484,13 +2349,10 @@
         <v>105</v>
       </c>
       <c r="C104" s="2">
-        <v>3</v>
-      </c>
-      <c r="D104" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="2" customFormat="1">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -2498,13 +2360,10 @@
         <v>106</v>
       </c>
       <c r="C105" s="2">
-        <v>2</v>
-      </c>
-      <c r="D105" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="2" customFormat="1">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -2512,41 +2371,32 @@
         <v>107</v>
       </c>
       <c r="C106" s="2">
-        <v>2</v>
-      </c>
-      <c r="D106" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="4" customFormat="1">
-      <c r="A107" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="2" customFormat="1">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="4">
-        <v>5</v>
-      </c>
-      <c r="D107" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="3" customFormat="1">
-      <c r="A108" s="3">
+      <c r="C107" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="2" customFormat="1">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="3">
-        <v>5</v>
-      </c>
-      <c r="D108" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="2" customFormat="1">
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="2" customFormat="1">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -2556,67 +2406,52 @@
       <c r="C109" s="2">
         <v>4</v>
       </c>
-      <c r="D109" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="3" customFormat="1">
-      <c r="A110" s="3">
+    </row>
+    <row r="110" spans="1:3" s="2" customFormat="1">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="3">
-        <v>4</v>
-      </c>
-      <c r="D110" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
+      <c r="C110" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="2" customFormat="1">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
+      <c r="C111" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="2" customFormat="1">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="4" customFormat="1">
-      <c r="A113" s="4">
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="2" customFormat="1">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="4">
-        <v>4</v>
-      </c>
-      <c r="D113" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="2" customFormat="1">
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="2" customFormat="1">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -2626,53 +2461,41 @@
       <c r="C114" s="2">
         <v>2</v>
       </c>
-      <c r="D114" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="3" customFormat="1">
-      <c r="A115" s="3">
+    </row>
+    <row r="115" spans="1:3" s="2" customFormat="1">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="3">
-        <v>5</v>
-      </c>
-      <c r="D115" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="3" customFormat="1">
-      <c r="A116" s="3">
+      <c r="C115" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="2" customFormat="1">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="3">
-        <v>5</v>
-      </c>
-      <c r="D116" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
+      <c r="C116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="2" customFormat="1">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C117">
-        <v>3</v>
-      </c>
-      <c r="D117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="2" customFormat="1">
+      <c r="C117" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="2" customFormat="1">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -2680,83 +2503,65 @@
         <v>119</v>
       </c>
       <c r="C118" s="2">
-        <v>4</v>
-      </c>
-      <c r="D118" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="2" customFormat="1">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C119">
-        <v>3</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="3" customFormat="1">
-      <c r="A120" s="3">
+      <c r="C119" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="2" customFormat="1">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="3">
-        <v>4</v>
-      </c>
-      <c r="D120" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="4" customFormat="1">
-      <c r="A121" s="4">
+      <c r="C120" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="2" customFormat="1">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C121" s="4">
-        <v>5</v>
-      </c>
-      <c r="D121" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="3" customFormat="1">
-      <c r="A122" s="3">
+      <c r="C121" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="2" customFormat="1">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C122" s="3">
-        <v>5</v>
-      </c>
-      <c r="D122" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" s="4" customFormat="1">
-      <c r="A123" s="4">
+      <c r="C122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="2" customFormat="1">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="4">
-        <v>5</v>
-      </c>
-      <c r="D123" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="2" customFormat="1">
+      <c r="C123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="2" customFormat="1">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -2766,11 +2571,8 @@
       <c r="C124" s="2">
         <v>2</v>
       </c>
-      <c r="D124" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="2" customFormat="1">
+    </row>
+    <row r="125" spans="1:3" s="2" customFormat="1">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -2780,25 +2582,19 @@
       <c r="C125" s="2">
         <v>4</v>
       </c>
-      <c r="D125" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="3" customFormat="1">
-      <c r="A126" s="3">
+    </row>
+    <row r="126" spans="1:3" s="2" customFormat="1">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="3">
-        <v>5</v>
-      </c>
-      <c r="D126" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="2" customFormat="1">
+      <c r="C126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="2" customFormat="1">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -2806,27 +2602,21 @@
         <v>128</v>
       </c>
       <c r="C127" s="2">
-        <v>2</v>
-      </c>
-      <c r="D127" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" s="3" customFormat="1">
-      <c r="A128" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="2" customFormat="1">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="3">
-        <v>5</v>
-      </c>
-      <c r="D128" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="2" customFormat="1">
+      <c r="C128" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="2" customFormat="1">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -2834,69 +2624,54 @@
         <v>130</v>
       </c>
       <c r="C129" s="2">
-        <v>2</v>
-      </c>
-      <c r="D129" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" s="4" customFormat="1">
-      <c r="A130" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="2" customFormat="1">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C130" s="4">
-        <v>5</v>
-      </c>
-      <c r="D130" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="3" customFormat="1">
-      <c r="A131" s="3">
+      <c r="C130" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="2" customFormat="1">
+      <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C131" s="3">
-        <v>4</v>
-      </c>
-      <c r="D131" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132">
+      <c r="C131" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="2" customFormat="1">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" s="2" customFormat="1">
+      <c r="C132" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="2" customFormat="1">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" s="2">
-        <v>3</v>
-      </c>
-      <c r="D133" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="2" customFormat="1">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -2906,39 +2681,30 @@
       <c r="C134" s="2">
         <v>3</v>
       </c>
-      <c r="D134" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135">
+    </row>
+    <row r="135" spans="1:3" s="2" customFormat="1">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C135">
-        <v>5</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" s="4" customFormat="1">
-      <c r="A136" s="4">
+      <c r="C135" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="2" customFormat="1">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="4">
-        <v>5</v>
-      </c>
-      <c r="D136" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="2" customFormat="1">
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="2" customFormat="1">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -2948,11 +2714,8 @@
       <c r="C137" s="2">
         <v>2</v>
       </c>
-      <c r="D137" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="2" customFormat="1">
+    </row>
+    <row r="138" spans="1:3" s="2" customFormat="1">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -2960,13 +2723,10 @@
         <v>138</v>
       </c>
       <c r="C138" s="2">
-        <v>2</v>
-      </c>
-      <c r="D138" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="2" customFormat="1">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -2974,13 +2734,10 @@
         <v>139</v>
       </c>
       <c r="C139" s="2">
-        <v>3</v>
-      </c>
-      <c r="D139" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="2" customFormat="1">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -2988,13 +2745,10 @@
         <v>140</v>
       </c>
       <c r="C140" s="2">
-        <v>2</v>
-      </c>
-      <c r="D140" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="2" customFormat="1">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -3002,13 +2756,10 @@
         <v>141</v>
       </c>
       <c r="C141" s="2">
-        <v>2</v>
-      </c>
-      <c r="D141" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="2" customFormat="1">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -3016,13 +2767,10 @@
         <v>142</v>
       </c>
       <c r="C142" s="2">
-        <v>2</v>
-      </c>
-      <c r="D142" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="2" customFormat="1">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -3030,27 +2778,21 @@
         <v>143</v>
       </c>
       <c r="C143" s="2">
-        <v>2</v>
-      </c>
-      <c r="D143" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="4" customFormat="1">
-      <c r="A144" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="2" customFormat="1">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="4">
-        <v>4</v>
-      </c>
-      <c r="D144" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="2" customFormat="1">
+      <c r="C144" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="2" customFormat="1">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -3058,41 +2800,32 @@
         <v>145</v>
       </c>
       <c r="C145" s="2">
-        <v>3</v>
-      </c>
-      <c r="D145" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="2" customFormat="1">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C146">
-        <v>3</v>
-      </c>
-      <c r="D146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" s="4" customFormat="1">
-      <c r="A147" s="4">
+      <c r="C146" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="2" customFormat="1">
+      <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="4">
-        <v>4</v>
-      </c>
-      <c r="D147" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" s="2" customFormat="1">
+      <c r="C147" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="2" customFormat="1">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -3102,11 +2835,8 @@
       <c r="C148" s="2">
         <v>2</v>
       </c>
-      <c r="D148" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" s="2" customFormat="1">
+    </row>
+    <row r="149" spans="1:3" s="2" customFormat="1">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -3114,41 +2844,32 @@
         <v>149</v>
       </c>
       <c r="C149" s="2">
-        <v>2</v>
-      </c>
-      <c r="D149" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="2" customFormat="1">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C150">
-        <v>3</v>
-      </c>
-      <c r="D150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151">
+      <c r="C150" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="2" customFormat="1">
+      <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C151">
-        <v>5</v>
-      </c>
-      <c r="D151">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" s="2" customFormat="1">
+      <c r="C151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="2" customFormat="1">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -3156,27 +2877,21 @@
         <v>152</v>
       </c>
       <c r="C152" s="2">
-        <v>2</v>
-      </c>
-      <c r="D152" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="2" customFormat="1">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C153">
-        <v>5</v>
-      </c>
-      <c r="D153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="2" customFormat="1">
+      <c r="C153" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="2" customFormat="1">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -3184,13 +2899,10 @@
         <v>154</v>
       </c>
       <c r="C154" s="2">
-        <v>3</v>
-      </c>
-      <c r="D154" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="2" customFormat="1">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -3198,55 +2910,43 @@
         <v>155</v>
       </c>
       <c r="C155" s="2">
-        <v>2</v>
-      </c>
-      <c r="D155" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" s="4" customFormat="1">
-      <c r="A156" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="2" customFormat="1">
+      <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="4">
-        <v>5</v>
-      </c>
-      <c r="D156" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="3" customFormat="1">
-      <c r="A157" s="3">
+      <c r="C156" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="2" customFormat="1">
+      <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="3">
-        <v>4</v>
-      </c>
-      <c r="D157" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="2" customFormat="1">
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="2" customFormat="1">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
-      </c>
-      <c r="D158" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" s="2" customFormat="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="2" customFormat="1">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -3256,11 +2956,8 @@
       <c r="C159" s="2">
         <v>3</v>
       </c>
-      <c r="D159" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" s="2" customFormat="1">
+    </row>
+    <row r="160" spans="1:3" s="2" customFormat="1">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -3268,69 +2965,54 @@
         <v>159</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
-      </c>
-      <c r="D160" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="2" customFormat="1">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C161">
-        <v>4</v>
-      </c>
-      <c r="D161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162">
+      <c r="C161" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="2" customFormat="1">
+      <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C162">
-        <v>5</v>
-      </c>
-      <c r="D162">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="4" customFormat="1">
-      <c r="A163" s="4">
+      <c r="C162" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="2" customFormat="1">
+      <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="4">
-        <v>4</v>
-      </c>
-      <c r="D163" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164">
+      <c r="C163" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="2" customFormat="1">
+      <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C164">
-        <v>4</v>
-      </c>
-      <c r="D164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="2" customFormat="1">
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="2" customFormat="1">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -3338,27 +3020,21 @@
         <v>164</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
-      </c>
-      <c r="D165" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="2" customFormat="1">
+      <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C166">
-        <v>5</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="2" customFormat="1">
+      <c r="C166" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="2" customFormat="1">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -3366,41 +3042,32 @@
         <v>166</v>
       </c>
       <c r="C167" s="2">
-        <v>2</v>
-      </c>
-      <c r="D167" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="3" customFormat="1">
-      <c r="A168" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="2" customFormat="1">
+      <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="3">
-        <v>5</v>
-      </c>
-      <c r="D168" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169">
+      <c r="C168" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="2" customFormat="1">
+      <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C169">
-        <v>4</v>
-      </c>
-      <c r="D169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="2" customFormat="1">
+      <c r="C169" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="2" customFormat="1">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -3408,27 +3075,21 @@
         <v>169</v>
       </c>
       <c r="C170" s="2">
-        <v>3</v>
-      </c>
-      <c r="D170" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="2" customFormat="1">
+      <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C171">
-        <v>5</v>
-      </c>
-      <c r="D171">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="2" customFormat="1">
+      <c r="C171" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="2" customFormat="1">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -3436,13 +3097,10 @@
         <v>171</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
-      </c>
-      <c r="D172" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="2" customFormat="1">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -3450,13 +3108,10 @@
         <v>172</v>
       </c>
       <c r="C173" s="2">
-        <v>2</v>
-      </c>
-      <c r="D173" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="2" customFormat="1">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -3464,167 +3119,131 @@
         <v>173</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
-      </c>
-      <c r="D174" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="2" customFormat="1">
+      <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-      <c r="D175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="3" customFormat="1">
-      <c r="A176" s="3">
+      <c r="C175" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="2" customFormat="1">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="2" customFormat="1">
+      <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C176" s="3">
-        <v>4</v>
-      </c>
-      <c r="D176" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="3" customFormat="1">
-      <c r="A177" s="3">
-        <v>175</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C177" s="3">
-        <v>5</v>
-      </c>
-      <c r="D177" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178">
+      <c r="B177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="2" customFormat="1">
+      <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" s="3" customFormat="1">
-      <c r="A179" s="3">
+      <c r="C178" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="2" customFormat="1">
+      <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="3">
-        <v>5</v>
-      </c>
-      <c r="D179" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" s="3" customFormat="1">
-      <c r="A180" s="3">
+      <c r="C179" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="2" customFormat="1">
+      <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="3">
-        <v>5</v>
-      </c>
-      <c r="D180" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181">
+      <c r="C180" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="2" customFormat="1">
+      <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C181">
-        <v>5</v>
-      </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182">
+      <c r="C181" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="2" customFormat="1">
+      <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C182">
-        <v>3</v>
-      </c>
-      <c r="D182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183">
+      <c r="C182" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="2" customFormat="1">
+      <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C183">
-        <v>3</v>
-      </c>
-      <c r="D183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184">
+      <c r="C183" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="2" customFormat="1">
+      <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C184">
-        <v>5</v>
-      </c>
-      <c r="D184">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185">
+      <c r="C184" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="2" customFormat="1">
+      <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C185">
-        <v>2</v>
-      </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" s="2" customFormat="1">
+      <c r="C185" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="2" customFormat="1">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -3632,13 +3251,10 @@
         <v>184</v>
       </c>
       <c r="C186" s="2">
-        <v>4</v>
-      </c>
-      <c r="D186" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" s="2" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="2" customFormat="1">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -3646,27 +3262,21 @@
         <v>185</v>
       </c>
       <c r="C187" s="2">
-        <v>2</v>
-      </c>
-      <c r="D187" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="4" customFormat="1">
-      <c r="A188" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="2" customFormat="1">
+      <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="4">
-        <v>4</v>
-      </c>
-      <c r="D188" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" s="2" customFormat="1">
+      <c r="C188" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="2" customFormat="1">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -3674,13 +3284,10 @@
         <v>187</v>
       </c>
       <c r="C189" s="2">
-        <v>3</v>
-      </c>
-      <c r="D189" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="2" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="2" customFormat="1">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -3688,13 +3295,10 @@
         <v>188</v>
       </c>
       <c r="C190" s="2">
-        <v>3</v>
-      </c>
-      <c r="D190" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" s="2" customFormat="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="2" customFormat="1">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -3702,13 +3306,10 @@
         <v>189</v>
       </c>
       <c r="C191" s="2">
-        <v>3</v>
-      </c>
-      <c r="D191" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" s="2" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="2" customFormat="1">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -3716,9 +3317,6 @@
         <v>190</v>
       </c>
       <c r="C192" s="2">
-        <v>3</v>
-      </c>
-      <c r="D192" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3730,108 +3328,84 @@
         <v>191</v>
       </c>
       <c r="C193" s="2">
-        <v>2</v>
-      </c>
-      <c r="D193" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="3" customFormat="1">
-      <c r="A194" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="2" customFormat="1">
+      <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="3">
-        <v>4</v>
-      </c>
-      <c r="D194" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195">
+      <c r="C194" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="2" customFormat="1">
+      <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>192</v>
-      </c>
-      <c r="C195">
-        <v>4</v>
-      </c>
-      <c r="D195">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" s="4" customFormat="1">
-      <c r="A196" s="4">
+      <c r="B195" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C195" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="2" customFormat="1">
+      <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="4">
-        <v>3</v>
-      </c>
-      <c r="D196" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" s="4" customFormat="1">
-      <c r="A197" s="4">
+      <c r="C196" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="2" customFormat="1">
+      <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C197" s="4">
-        <v>4</v>
-      </c>
-      <c r="D197" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="3" customFormat="1">
-      <c r="A198" s="3">
+      <c r="C197" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="2" customFormat="1">
+      <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C198" s="3">
-        <v>5</v>
-      </c>
-      <c r="D198" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" s="4" customFormat="1">
-      <c r="A199" s="4">
+      <c r="C198" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="2" customFormat="1">
+      <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C199" s="4">
-        <v>5</v>
-      </c>
-      <c r="D199" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="3" customFormat="1">
-      <c r="A200" s="3">
+      <c r="C199" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="2" customFormat="1">
+      <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C200" s="3">
-        <v>5</v>
-      </c>
-      <c r="D200" s="3">
-        <v>4</v>
+      <c r="C200" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1">
@@ -3842,21 +3416,251 @@
         <v>198</v>
       </c>
       <c r="C201" s="2">
-        <v>3</v>
-      </c>
-      <c r="D201" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="2" customFormat="1">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="2" customFormat="1">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D203" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D201"/>
+  <autoFilter ref="A1:D203"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3868,42 +3672,50 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>201</v>
+      <c r="A4" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>203</v>
+      <c r="A5" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>205</v>
+      <c r="A6" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>207</v>
+      <c r="A7" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Сравнение оценок.xlsx
+++ b/Tables/Сравнение оценок.xlsx
@@ -3455,7 +3455,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
